--- a/Documentacion/Formato de casos de uso.xlsx
+++ b/Documentacion/Formato de casos de uso.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CU1" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="123">
   <si>
     <t xml:space="preserve">FORMATO DE CASOS DE USO</t>
   </si>
@@ -308,6 +308,9 @@
     <t xml:space="preserve">CU.8 GENERAR FACTURA</t>
   </si>
   <si>
+    <t xml:space="preserve">Act.2 Empleado, Act.3 Cliente</t>
+  </si>
+  <si>
     <t xml:space="preserve">Generar resumen de factura</t>
   </si>
   <si>
@@ -320,10 +323,28 @@
     <t xml:space="preserve">Se muestra el resumen de la factura</t>
   </si>
   <si>
-    <t xml:space="preserve">El empleado selecciona la opción generar factura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema muestra el resumen de la factura</t>
+    <t xml:space="preserve">El usuario selecciona la opción generar factura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema solicita la placa del vehículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario diligencia la información solicitada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario envía la información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema muestra la ultima factura generada para dicho vehículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario selecciona la opción descargar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema descarga el documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario puede cancelar el proceso en cualquier momento</t>
   </si>
   <si>
     <t xml:space="preserve">CU.9 INICIO DE SESIÓN</t>
@@ -1122,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1150,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1160,7 +1181,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1180,7 +1201,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1212,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
@@ -1244,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,7 +1388,7 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1390,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2685,8 +2706,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2960,8 +2981,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3221,8 +3242,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3265,7 +3286,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3275,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -3285,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -3295,7 +3316,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -3305,7 +3326,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3337,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="27"/>
@@ -3349,38 +3370,57 @@
         <v>2</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="18"/>
+      <c r="C15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
@@ -3404,17 +3444,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="C20" s="16"/>
       <c r="D20" s="27"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
@@ -3470,8 +3516,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3496,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3514,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3524,7 +3570,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -3534,7 +3580,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -3544,7 +3590,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -3554,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3586,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
@@ -3606,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="21"/>
@@ -3668,11 +3714,11 @@
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="27" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3682,7 +3728,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
